--- a/biology/Médecine/Insuffisance_hépatocellulaire/Insuffisance_hépatocellulaire.xlsx
+++ b/biology/Médecine/Insuffisance_hépatocellulaire/Insuffisance_hépatocellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Insuffisance_h%C3%A9patocellulaire</t>
+          <t>Insuffisance_hépatocellulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'insuffisance hépatocellulaire[1],[2],[3] est un dysfonctionnement des cellules du foie. Elle peut conduire à une encéphalopathie hépatique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'insuffisance hépatocellulaire est un dysfonctionnement des cellules du foie. Elle peut conduire à une encéphalopathie hépatique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Insuffisance_h%C3%A9patocellulaire</t>
+          <t>Insuffisance_hépatocellulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les causes principales de l'insuffisance hépatocellulaires sont :
 les hépatites cytolytiques aiguës, qu'elles soient d'origine virale (hépatites), toxiques (dont médicamenteuses) ou ischémiques ;
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Insuffisance_h%C3%A9patocellulaire</t>
+          <t>Insuffisance_hépatocellulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Conséquences cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le syndrome d'insuffisance hépatocellulaire se manifeste sur le plan clinique par :
 asthénie ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Insuffisance_h%C3%A9patocellulaire</t>
+          <t>Insuffisance_hépatocellulaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Conséquences biologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Abaissement des taux de facteurs de la coagulation, y compris le facteur V non vitamine K-dépendant
-Chute du taux de prothrombine non corrigeable par l'administration parentérale de vitamine K (Test de Kohler[4])
+Chute du taux de prothrombine non corrigeable par l'administration parentérale de vitamine K (Test de Kohler)
 Hypoprotidémie, hypoalbuminémie
 Hypoglycémie lors d'insuffisance hépatocellulaire majeure
 Hypourémie
